--- a/biology/Médecine/QazCovid-in/QazCovid-in.xlsx
+++ b/biology/Médecine/QazCovid-in/QazCovid-in.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">QazCovid-in, également connu sous le nom de QazVac[1],[2], est un vaccin contre la Covid-19 développé par l'Institut de recherche sur les problèmes de sécurité biologique au Kazakhstan[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QazCovid-in, également connu sous le nom de QazVac est un vaccin contre la Covid-19 développé par l'Institut de recherche sur les problèmes de sécurité biologique au Kazakhstan.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vaccin a été fabriqué pour la première fois à l'Institut de recherche sur les problèmes de sécurité biologique. La capacité a été limitée à 50 000 doses par mois.
-Un contrat est en cours de négociation avec une entreprise turque pour augmenter la production pour passer à une production d'environ 500 000 à 600 000 doses par mois[6].
+Un contrat est en cours de négociation avec une entreprise turque pour augmenter la production pour passer à une production d'environ 500 000 à 600 000 doses par mois.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier lot de 50 000 doses a été livré le 26 avril 2021 et la vaccination a commencé au même moment[7]. En juin, la capacité passera à 100 000 doses par mois, indépendamment de la signature du contrat de mise en bouteille avec une compagnie turque[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier lot de 50 000 doses a été livré le 26 avril 2021 et la vaccination a commencé au même moment. En juin, la capacité passera à 100 000 doses par mois, indépendamment de la signature du contrat de mise en bouteille avec une compagnie turque.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Autorisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actuellement, seul le Kazakhstan a autorisé l'usage du vaccin[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actuellement, seul le Kazakhstan a autorisé l'usage du vaccin.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vaccin peut être conservé à la température du réfrigérateur, c'est-à-dire entre 2 et 8 °C. Deux doses sont nécessaires à 21 jours d'intervalle[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vaccin peut être conservé à la température du réfrigérateur, c'est-à-dire entre 2 et 8 °C. Deux doses sont nécessaires à 21 jours d'intervalle.
 </t>
         </is>
       </c>
